--- a/biology/Botanique/Arbre_à_gentiane/Arbre_à_gentiane.xlsx
+++ b/biology/Botanique/Arbre_à_gentiane/Arbre_à_gentiane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arbre_%C3%A0_gentiane</t>
+          <t>Arbre_à_gentiane</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lycianthes rantonnetii
 L’arbre à gentiane (Lycianthes rantonnetii) est un arbuste de la famille des Solanacées originaire d'Amérique du Sud. Il a été nommé en l'honneur du botaniste français Barthélémy Victor Rantonnet. On l'appelle aussi Morelle de Rantonnet ou « buisson à patates bleues » en anglais.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arbre_%C3%A0_gentiane</t>
+          <t>Arbre_à_gentiane</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre à gentiane est un arbuste pouvant atteindre jusqu'à 4 m de haut.
 Ses rameaux retombants et souples sont légèrement pubescents (essentiellement des trichomes simples), devenant plus tard glabres.
 Les feuilles sont minces et à marge légèrement ondulée. Elles sont à peine poilues et ont un court pétiole. Les feuilles sont généralement de 5-7 cm de long et 4 cm de long, mais peuvent être jusqu'à deux fois plus grandes.
 L'arbuste donne une grande et abondante floraison de fleurs bleu-violet du début de l'été jusqu'aux premiers froids. La corolle de type gamopétale a un tube court et 5 lobes et 5 étamines.
 Les fruits de la taille d'une noisette ne sont pas comestibles car toxiques.
-Cytologie : 2n=24[2]
+Cytologie : 2n=24
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arbre_%C3%A0_gentiane</t>
+          <t>Arbre_à_gentiane</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante gourmande a besoin d'une exposition chaude et très ensoleillée ainsi que d'un sol riche, frais mais très drainant pour bien fleurir.
 Elle ne supporte que brièvement des températures négatives (jusqu'à -5 °C - Zone USDA 7b à 8a). En cas de froids plus importants, la partie aérienne peut mourir et la souche peut redémarrer au printemps.
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arbre_%C3%A0_gentiane</t>
+          <t>Arbre_à_gentiane</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,9 +599,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est originaire du Brésil, Bolivie, Argentine et Paraguay[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est originaire du Brésil, Bolivie, Argentine et Paraguay.
 </t>
         </is>
       </c>
